--- a/instance/zyjk/swagger/oss.xlsx
+++ b/instance/zyjk/swagger/oss.xlsx
@@ -59,29 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -93,24 +72,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -492,230 +453,232 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>文件服务器-文件管理</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>获取文件访问路径</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/oss/file/getUrl</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>key={string}</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'key', 'in': 'query', 'description': '文件唯一键', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>文件服务器-文件管理</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>存储文件</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/oss/file/storage</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>ossToken={string}</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>文件服务器-文件管理</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>缩略图片上传接口</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/oss/file/thumbnailStorage</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>ossToken={string}&amp;scale={number}&amp;size={integer}</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}, {'name': 'scale', 'in': 'query', 'description': 'scale', 'required': False, 'type': 'number', 'format': 'double'}, {'name': 'size', 'in': 'query', 'description': 'size', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>文件服务器-用户管理</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>生成上传文件用到的token</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/oss/user/createToken</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>文件服务器-用户管理</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>账户注册</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/oss/user/register</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>password={string}</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'password', 'in': 'query', 'description': '注册上传密码', 'required': False, 'type': 'string'}]</t>
         </is>
